--- a/config_1.12/fish_yutu_random_2.xlsx
+++ b/config_1.12/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -286,23 +286,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,212,213,214,212,213,214,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,18,19,20,21,184,185,131,132,215,216,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,211,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,209,210,210,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,209,</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,201,202,203,201,202,203,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132,204,205,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,206,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,208,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,206,207,207,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,8 +1174,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1579,7 +1579,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="17">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -1603,7 +1603,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="17">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D18" s="18">
         <v>2</v>
@@ -1627,7 +1627,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="17">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D19" s="18">
         <v>2</v>
@@ -1651,7 +1651,7 @@
         <v>44</v>
       </c>
       <c r="C20" s="17">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D20" s="18">
         <v>2</v>
@@ -1862,8 +1862,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -1965,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
@@ -1982,7 +1982,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>66</v>
